--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A92DFFD4-85E7-491D-844B-64D1AEF35A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FFC332-2127-4C06-9043-F491A5D57F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Equipment" sheetId="3" r:id="rId3"/>
     <sheet name="Glasses" sheetId="4" r:id="rId4"/>
     <sheet name="Snacks" sheetId="5" r:id="rId5"/>
-    <sheet name="Sundries" sheetId="6" r:id="rId6"/>
+    <sheet name="Misc" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="178">
   <si>
     <t>No</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Tequila; Lime juice; Triple sec</t>
   </si>
   <si>
-    <t>Sour</t>
-  </si>
-  <si>
     <t>Whiskey Sour</t>
   </si>
   <si>
@@ -442,9 +439,6 @@
     <t>cocktail-fig-&amp;-licorice-caipirinha.jpg</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>Amaretto</t>
   </si>
   <si>
@@ -566,6 +560,21 @@
   </si>
   <si>
     <t>Magnificant Seven</t>
+  </si>
+  <si>
+    <t>VOdka</t>
+  </si>
+  <si>
+    <t>Brandy</t>
+  </si>
+  <si>
+    <t>Vodka; Orange juice</t>
+  </si>
+  <si>
+    <t>Tart, full of fruity flavour with a whiskey backbone.</t>
+  </si>
+  <si>
+    <t>Refreshingly different.</t>
   </si>
 </sst>
 </file>
@@ -936,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319662FA-EF41-4D3E-9C11-D43A21DBC267}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,10 +1005,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
@@ -1007,9 +1016,7 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1028,7 +1035,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -1036,9 +1043,7 @@
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1057,7 +1062,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -1065,9 +1070,7 @@
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1086,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>0</v>
@@ -1094,9 +1097,7 @@
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1109,10 +1110,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>28</v>
@@ -1123,9 +1124,7 @@
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1141,10 +1140,10 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>0</v>
@@ -1153,27 +1152,27 @@
         <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -1181,57 +1180,55 @@
       <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -1239,28 +1236,26 @@
       <c r="H10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -1268,28 +1263,26 @@
       <c r="H11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -1297,28 +1290,26 @@
       <c r="H12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -1326,57 +1317,55 @@
       <c r="H13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -1384,42 +1373,38 @@
       <c r="H15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>27</v>
@@ -1428,27 +1413,27 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -1457,13 +1442,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>0</v>
@@ -1471,13 +1456,11 @@
       <c r="H18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -1486,13 +1469,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>0</v>
@@ -1500,13 +1483,11 @@
       <c r="H19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>27</v>
@@ -1515,42 +1496,42 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>0</v>
@@ -1558,13 +1539,11 @@
       <c r="H21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
@@ -1573,42 +1552,42 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>0</v>
@@ -1616,42 +1595,40 @@
       <c r="H23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>27</v>
@@ -1660,13 +1637,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>0</v>
@@ -1674,71 +1651,67 @@
       <c r="H25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
@@ -1747,191 +1720,557 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="G28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="G29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="G30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>153</v>
+      <c r="E31" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>174</v>
+      <c r="B51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1957,13 +2296,13 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1986,10 +2325,10 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2012,13 +2351,13 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
         <v>139</v>
       </c>
-      <c r="C1" t="s">
-        <v>141</v>
-      </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2041,13 +2380,13 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2070,13 +2409,13 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FFC332-2127-4C06-9043-F491A5D57F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB9D31B-174C-469E-8893-A0B5C03D53EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="187">
   <si>
     <t>No</t>
   </si>
@@ -562,9 +562,6 @@
     <t>Magnificant Seven</t>
   </si>
   <si>
-    <t>VOdka</t>
-  </si>
-  <si>
     <t>Brandy</t>
   </si>
   <si>
@@ -575,6 +572,36 @@
   </si>
   <si>
     <t>Refreshingly different.</t>
+  </si>
+  <si>
+    <t>Vodka; Coffee liqueur; Cola; Guinness</t>
+  </si>
+  <si>
+    <t>cocktail-black-russian.jpg</t>
+  </si>
+  <si>
+    <t>Vodka; Coffee liqueur; Half and half; Guinness</t>
+  </si>
+  <si>
+    <t>Vodka; Passoa; Passionfruit purée; Lime juice; Apple juice</t>
+  </si>
+  <si>
+    <t>Vodka; Midori; Mango purée; Lemon juice; Prosecco</t>
+  </si>
+  <si>
+    <t>Vodka; Raspberry liqueur; Lime juice; Apple juice; Cider</t>
+  </si>
+  <si>
+    <t>Rum; Lime juice; Ginger beer</t>
+  </si>
+  <si>
+    <t>Gin; Lemon juice; Simple syrup; Prosecco</t>
+  </si>
+  <si>
+    <t>Peach; Raspberry; Strawberry; Watermelon; Orange; Passionfruit</t>
+  </si>
+  <si>
+    <t>Vodka; St Germain; Lime juice; Pineapple juice</t>
   </si>
 </sst>
 </file>
@@ -945,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319662FA-EF41-4D3E-9C11-D43A21DBC267}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,7 +1804,7 @@
         <v>146</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>147</v>
@@ -1804,7 +1831,7 @@
         <v>151</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>0</v>
@@ -1824,10 +1851,10 @@
         <v>112</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>0</v>
@@ -1836,7 +1863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>153</v>
       </c>
@@ -1847,10 +1874,10 @@
         <v>112</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>0</v>
@@ -1859,7 +1886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>154</v>
       </c>
@@ -1870,10 +1897,13 @@
         <v>112</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>0</v>
@@ -1882,7 +1912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
@@ -1893,10 +1923,10 @@
         <v>112</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>0</v>
@@ -1905,21 +1935,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>0</v>
@@ -1928,7 +1958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
@@ -1939,10 +1969,10 @@
         <v>112</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>0</v>
@@ -1951,21 +1981,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>0</v>
@@ -1974,7 +2004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>159</v>
       </c>
@@ -1985,10 +2015,10 @@
         <v>112</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>0</v>
@@ -1997,7 +2027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -2008,10 +2038,10 @@
         <v>112</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>0</v>
@@ -2020,7 +2050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
@@ -2031,10 +2061,10 @@
         <v>112</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>0</v>
@@ -2043,7 +2073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>163</v>
       </c>
@@ -2054,10 +2084,10 @@
         <v>112</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>0</v>
@@ -2066,7 +2096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>164</v>
       </c>
@@ -2077,10 +2107,10 @@
         <v>112</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>0</v>
@@ -2089,7 +2119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>165</v>
       </c>
@@ -2100,10 +2130,10 @@
         <v>112</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>0</v>
@@ -2112,7 +2142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>166</v>
       </c>
@@ -2123,10 +2153,10 @@
         <v>112</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>0</v>
@@ -2135,7 +2165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>167</v>
       </c>
@@ -2146,10 +2176,10 @@
         <v>112</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>0</v>
@@ -2157,8 +2187,11 @@
       <c r="H46" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>168</v>
       </c>
@@ -2169,10 +2202,10 @@
         <v>112</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>0</v>
@@ -2181,7 +2214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>169</v>
       </c>
@@ -2192,10 +2225,10 @@
         <v>112</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>0</v>
@@ -2215,10 +2248,10 @@
         <v>112</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>0</v>
@@ -2238,10 +2271,10 @@
         <v>112</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>0</v>
@@ -2261,10 +2294,10 @@
         <v>112</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>0</v>

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB9D31B-174C-469E-8893-A0B5C03D53EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6037677E-6331-4D75-9356-23A8D82C1D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="192">
   <si>
     <t>No</t>
   </si>
@@ -602,6 +602,21 @@
   </si>
   <si>
     <t>Vodka; St Germain; Lime juice; Pineapple juice</t>
+  </si>
+  <si>
+    <t>Gimlet</t>
+  </si>
+  <si>
+    <t>Gin; Lime juice; Simple syrup</t>
+  </si>
+  <si>
+    <t>Simple, elegant and customisable.</t>
+  </si>
+  <si>
+    <t>cocktail-gimlet.jpg</t>
+  </si>
+  <si>
+    <t>Elderflower; Strawberry; Raspberry; Cucumber; Watermelon</t>
   </si>
 </sst>
 </file>
@@ -970,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319662FA-EF41-4D3E-9C11-D43A21DBC267}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,7 +2252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>170</v>
       </c>
@@ -2260,7 +2275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>171</v>
       </c>
@@ -2283,7 +2298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>172</v>
       </c>
@@ -2304,6 +2319,35 @@
       </c>
       <c r="H51" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6037677E-6331-4D75-9356-23A8D82C1D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587BBCE5-B57F-44C1-AD4A-C2E6065DF7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
   <sheets>
     <sheet name="Cocktails" sheetId="1" r:id="rId1"/>
-    <sheet name="Beer" sheetId="2" r:id="rId2"/>
-    <sheet name="Equipment" sheetId="3" r:id="rId3"/>
-    <sheet name="Glasses" sheetId="4" r:id="rId4"/>
-    <sheet name="Snacks" sheetId="5" r:id="rId5"/>
-    <sheet name="Misc" sheetId="6" r:id="rId6"/>
+    <sheet name="Spirits" sheetId="7" r:id="rId2"/>
+    <sheet name="Beer" sheetId="2" r:id="rId3"/>
+    <sheet name="Equipment" sheetId="3" r:id="rId4"/>
+    <sheet name="Glasses" sheetId="4" r:id="rId5"/>
+    <sheet name="Snacks" sheetId="5" r:id="rId6"/>
+    <sheet name="Misc" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="212">
   <si>
     <t>No</t>
   </si>
@@ -617,6 +618,66 @@
   </si>
   <si>
     <t>Elderflower; Strawberry; Raspberry; Cucumber; Watermelon</t>
+  </si>
+  <si>
+    <t>cocktail-haka.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-harvey wallbanger.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-boston flip.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-gin house blues.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-white russian.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-passion grove swizzle.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-apricot flip.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-fosbury flip.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-a-go flip.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-pedro's eggnogg.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-pear drop.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-elyx of life.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-raspberry cobbler.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-dark 'n' stormy.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-french 75.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-forbidden fruit.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-absinthe minded.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-gentleman's lynchberg.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-el diablo.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-magnificant seven.jpg</t>
   </si>
 </sst>
 </file>
@@ -987,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319662FA-EF41-4D3E-9C11-D43A21DBC267}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,6 +1909,9 @@
       <c r="E31" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1855,7 +1919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>152</v>
       </c>
@@ -1871,6 +1935,9 @@
       <c r="E32" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F32" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="G32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +1945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>153</v>
       </c>
@@ -1893,6 +1960,9 @@
       </c>
       <c r="E33" s="3" t="s">
         <v>176</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>0</v>
@@ -1927,7 +1997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
@@ -1943,6 +2013,9 @@
       <c r="E35" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F35" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1950,7 +2023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>156</v>
       </c>
@@ -1966,6 +2039,9 @@
       <c r="E36" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F36" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +2049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
@@ -1989,6 +2065,9 @@
       <c r="E37" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F37" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1996,7 +2075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
@@ -2012,6 +2091,9 @@
       <c r="E38" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F38" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="G38" s="1" t="s">
         <v>0</v>
       </c>
@@ -2019,7 +2101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>159</v>
       </c>
@@ -2034,6 +2116,9 @@
       </c>
       <c r="E39" s="3" t="s">
         <v>176</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>0</v>
@@ -2058,6 +2143,9 @@
       <c r="E40" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F40" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="G40" s="1" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
@@ -2081,6 +2169,9 @@
       <c r="E41" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F41" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="G41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2088,7 +2179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>163</v>
       </c>
@@ -2104,6 +2195,9 @@
       <c r="E42" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F42" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>0</v>
       </c>
@@ -2111,7 +2205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>164</v>
       </c>
@@ -2127,6 +2221,9 @@
       <c r="E43" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F43" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="G43" s="1" t="s">
         <v>0</v>
       </c>
@@ -2134,7 +2231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>165</v>
       </c>
@@ -2150,6 +2247,9 @@
       <c r="E44" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F44" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="G44" s="1" t="s">
         <v>0</v>
       </c>
@@ -2157,7 +2257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>166</v>
       </c>
@@ -2172,6 +2272,9 @@
       </c>
       <c r="E45" s="3" t="s">
         <v>176</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>0</v>
@@ -2196,6 +2299,9 @@
       <c r="E46" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F46" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="G46" s="1" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2312,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>168</v>
       </c>
@@ -2222,6 +2328,9 @@
       <c r="E47" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F47" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="G47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2229,7 +2338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>169</v>
       </c>
@@ -2245,6 +2354,9 @@
       <c r="E48" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F48" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="G48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2252,7 +2364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>170</v>
       </c>
@@ -2267,6 +2379,9 @@
       </c>
       <c r="E49" s="3" t="s">
         <v>176</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>0</v>
@@ -2291,6 +2406,9 @@
       <c r="E50" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F50" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="G50" s="1" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +2416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>172</v>
       </c>
@@ -2313,6 +2431,9 @@
       </c>
       <c r="E51" s="3" t="s">
         <v>176</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>0</v>
@@ -2356,6 +2477,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1DAADE-BA31-4DFD-A5C8-BF7FC49A43D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4DA02F-846B-444F-B15E-6AB08FBC8131}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -2387,7 +2520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1469BC4-FD50-4FAB-AC21-54BD7B4562B9}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -2413,7 +2546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93446264-B9B7-4DA7-B7F9-A7A72E90E0BF}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -2442,7 +2575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40B6401-96B1-4849-B63E-2E32810EA924}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -2471,7 +2604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E3F5C3-BC76-4BDF-809F-51355181FF25}">
   <dimension ref="A1:D1"/>
   <sheetViews>

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587BBCE5-B57F-44C1-AD4A-C2E6065DF7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7A4B84-B476-4DE6-B902-AE38E9E9F4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
   <sheets>
     <sheet name="Cocktails" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Glasses" sheetId="4" r:id="rId5"/>
     <sheet name="Snacks" sheetId="5" r:id="rId6"/>
     <sheet name="Misc" sheetId="6" r:id="rId7"/>
+    <sheet name="Heroes" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="241">
   <si>
     <t>No</t>
   </si>
@@ -678,6 +679,105 @@
   </si>
   <si>
     <t>cocktail-magnificant seven.jpg</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Header Text</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>ABV (%)</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>premium-listings</t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>cocktail-service</t>
+  </si>
+  <si>
+    <t>draft-systems</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cocktail Service"</t>
+    </r>
+  </si>
+  <si>
+    <t>"Draft Systems"</t>
+  </si>
+  <si>
+    <t>"Cocktails"</t>
+  </si>
+  <si>
+    <t>"Beer"</t>
+  </si>
+  <si>
+    <t>design-your-menu</t>
+  </si>
+  <si>
+    <t>"Design your menu"</t>
+  </si>
+  <si>
+    <t>tonights-event</t>
+  </si>
+  <si>
+    <t>"Tonight's event"</t>
+  </si>
+  <si>
+    <t>sip</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>celebrate</t>
+  </si>
+  <si>
+    <t>"Sip"</t>
+  </si>
+  <si>
+    <t>"Tip"</t>
+  </si>
+  <si>
+    <t>"Celebrate!"</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -721,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -732,6 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,7 +1149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319662FA-EF41-4D3E-9C11-D43A21DBC267}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -2478,12 +2579,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1DAADE-BA31-4DFD-A5C8-BF7FC49A43D1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2493,25 +2620,25 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2631,4 +2758,207 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B94EE-BFDD-41BC-82DE-181F522B188E}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" t="str">
+        <f>A2&amp;"-"&amp;B2</f>
+        <v>services-cocktail-service</v>
+      </c>
+      <c r="E2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" t="str">
+        <f>A3&amp;"-"&amp;B3</f>
+        <v>services-draft-systems</v>
+      </c>
+      <c r="E3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D3:D10" si="0">A4&amp;"-"&amp;B4</f>
+        <v>premium-listings-cocktails</v>
+      </c>
+      <c r="E4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>premium-listings-beer</v>
+      </c>
+      <c r="E5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>design-your-menu-design-your-menu</v>
+      </c>
+      <c r="E6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>tonights-event-tonights-event</v>
+      </c>
+      <c r="E7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>tonights-event-sip</v>
+      </c>
+      <c r="E8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>tonights-event-tip</v>
+      </c>
+      <c r="E9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>tonights-event-celebrate</v>
+      </c>
+      <c r="E10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7A4B84-B476-4DE6-B902-AE38E9E9F4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4212C13B-3274-49C1-9B48-27DE37643220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="248">
   <si>
     <t>No</t>
   </si>
@@ -681,15 +681,6 @@
     <t>cocktail-magnificant seven.jpg</t>
   </si>
   <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>Section</t>
-  </si>
-  <si>
-    <t>Header Text</t>
-  </si>
-  <si>
     <t>Base</t>
   </si>
   <si>
@@ -702,89 +693,107 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
     <t>services</t>
   </si>
   <si>
-    <t>premium-listings</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>cocktail-service</t>
-  </si>
-  <si>
-    <t>draft-systems</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cocktail Service"</t>
-    </r>
-  </si>
-  <si>
-    <t>"Draft Systems"</t>
-  </si>
-  <si>
-    <t>"Cocktails"</t>
-  </si>
-  <si>
-    <t>"Beer"</t>
-  </si>
-  <si>
-    <t>design-your-menu</t>
-  </si>
-  <si>
-    <t>"Design your menu"</t>
-  </si>
-  <si>
     <t>tonights-event</t>
   </si>
   <si>
-    <t>"Tonight's event"</t>
-  </si>
-  <si>
     <t>sip</t>
   </si>
   <si>
-    <t>tip</t>
-  </si>
-  <si>
-    <t>celebrate</t>
-  </si>
-  <si>
-    <t>"Sip"</t>
-  </si>
-  <si>
-    <t>"Tip"</t>
-  </si>
-  <si>
-    <t>"Celebrate!"</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>subtitle</t>
+  </si>
+  <si>
+    <t>button_text</t>
+  </si>
+  <si>
+    <t>button_link</t>
+  </si>
+  <si>
+    <t>gradient</t>
+  </si>
+  <si>
+    <t>image_filename</t>
+  </si>
+  <si>
+    <t>style_class</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>accordion</t>
+  </si>
+  <si>
+    <t>tonights</t>
+  </si>
+  <si>
+    <t>Enjoy curated cocktails</t>
+  </si>
+  <si>
+    <t>linear-gradient(135deg, #ff5f6d, #ffc371)</t>
+  </si>
+  <si>
+    <t>sub-hero</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Tonight’s Event</t>
+  </si>
+  <si>
+    <t>Sip, Tip, Celebrate</t>
+  </si>
+  <si>
+    <t>tonights-event.jpg</t>
+  </si>
+  <si>
+    <t>linear-gradient(135deg, #111, #333)</t>
+  </si>
+  <si>
+    <t>big-hero</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Sip</t>
+  </si>
+  <si>
+    <t>View Cocktails</t>
+  </si>
+  <si>
+    <t>cocktails.html</t>
+  </si>
+  <si>
+    <t>tonights-sip.jpg</t>
+  </si>
+  <si>
+    <t>Our Services</t>
+  </si>
+  <si>
+    <t>From cocktails to kegs…</t>
+  </si>
+  <si>
+    <t>services-header.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,6 +808,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -821,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -833,6 +847,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,7 +1169,7 @@
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
@@ -1166,7 +1182,7 @@
     <col min="9" max="9" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1195,7 +1211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1222,7 +1238,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,7 +1265,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1276,7 +1292,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1303,7 +1319,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1330,7 +1346,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="60">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1359,7 +1375,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1386,7 +1402,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1415,7 +1431,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1442,7 +1458,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -1469,7 +1485,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1496,7 +1512,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="45">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1523,7 +1539,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="45">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1552,7 +1568,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="30">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1579,7 +1595,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="45">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -1606,7 +1622,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1635,7 +1651,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -1662,7 +1678,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="30">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -1689,7 +1705,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -1718,7 +1734,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -1745,7 +1761,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="45">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -1774,7 +1790,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -1801,7 +1817,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -1830,7 +1846,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="30">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -1857,7 +1873,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30">
       <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
@@ -1884,7 +1900,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30">
       <c r="A27" s="1" t="s">
         <v>96</v>
       </c>
@@ -1913,7 +1929,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30">
       <c r="A28" s="1" t="s">
         <v>127</v>
       </c>
@@ -1940,7 +1956,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="45">
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
@@ -1967,7 +1983,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30">
       <c r="A30" s="1" t="s">
         <v>145</v>
       </c>
@@ -1994,7 +2010,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30">
       <c r="A31" s="1" t="s">
         <v>148</v>
       </c>
@@ -2020,7 +2036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="30">
       <c r="A32" s="1" t="s">
         <v>152</v>
       </c>
@@ -2046,7 +2062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="30">
       <c r="A33" s="1" t="s">
         <v>153</v>
       </c>
@@ -2072,7 +2088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="30">
       <c r="A34" s="1" t="s">
         <v>154</v>
       </c>
@@ -2098,7 +2114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30">
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
@@ -2124,7 +2140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="30">
       <c r="A36" s="1" t="s">
         <v>156</v>
       </c>
@@ -2150,7 +2166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
@@ -2176,7 +2192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
@@ -2202,7 +2218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="30">
       <c r="A39" s="1" t="s">
         <v>159</v>
       </c>
@@ -2228,7 +2244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -2254,7 +2270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="30">
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
@@ -2280,7 +2296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="30">
       <c r="A42" s="1" t="s">
         <v>163</v>
       </c>
@@ -2306,7 +2322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30">
       <c r="A43" s="1" t="s">
         <v>164</v>
       </c>
@@ -2332,7 +2348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44" s="1" t="s">
         <v>165</v>
       </c>
@@ -2358,7 +2374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="1" t="s">
         <v>166</v>
       </c>
@@ -2384,7 +2400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="45">
       <c r="A46" s="1" t="s">
         <v>167</v>
       </c>
@@ -2413,7 +2429,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="30">
       <c r="A47" s="1" t="s">
         <v>168</v>
       </c>
@@ -2439,7 +2455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="30">
       <c r="A48" s="1" t="s">
         <v>169</v>
       </c>
@@ -2465,7 +2481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30">
       <c r="A49" s="1" t="s">
         <v>170</v>
       </c>
@@ -2491,7 +2507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>171</v>
       </c>
@@ -2517,7 +2533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" s="1" t="s">
         <v>172</v>
       </c>
@@ -2543,7 +2559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="45">
       <c r="A52" s="1" t="s">
         <v>187</v>
       </c>
@@ -2585,26 +2601,26 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>91</v>
@@ -2623,9 +2639,9 @@
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2655,9 +2671,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2681,9 +2697,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2710,9 +2726,9 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2739,9 +2755,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2762,201 +2778,185 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B94EE-BFDD-41BC-82DE-181F522B188E}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B1" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" t="str">
-        <f>A2&amp;"-"&amp;B2</f>
-        <v>services-cocktail-service</v>
+        <v>217</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="E2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" t="str">
-        <f>A3&amp;"-"&amp;B3</f>
-        <v>services-draft-systems</v>
+        <v>230</v>
+      </c>
+      <c r="D3" t="s">
+        <v>241</v>
       </c>
       <c r="E3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" t="s">
+        <v>239</v>
+      </c>
+      <c r="K4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D3:D10" si="0">A4&amp;"-"&amp;B4</f>
-        <v>premium-listings-cocktails</v>
-      </c>
-      <c r="E4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>premium-listings-beer</v>
-      </c>
-      <c r="E5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>design-your-menu-design-your-menu</v>
-      </c>
-      <c r="E6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>tonights-event-tonights-event</v>
-      </c>
-      <c r="E7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>tonights-event-sip</v>
-      </c>
-      <c r="E8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>tonights-event-tip</v>
-      </c>
-      <c r="E9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>tonights-event-celebrate</v>
-      </c>
-      <c r="E10" t="s">
-        <v>240</v>
-      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="L6" s="5"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="L8" s="5"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="L10" s="5"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="L12" s="5"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="L14" s="5"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="L16" s="5"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="L20" s="5"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="L22" s="5"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="L24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4212C13B-3274-49C1-9B48-27DE37643220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCA6EAE-BEAD-449E-B154-30D5ACD5B33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="246">
   <si>
     <t>No</t>
   </si>
@@ -756,9 +756,6 @@
     <t>Sip, Tip, Celebrate</t>
   </si>
   <si>
-    <t>tonights-event.jpg</t>
-  </si>
-  <si>
     <t>linear-gradient(135deg, #111, #333)</t>
   </si>
   <si>
@@ -777,16 +774,13 @@
     <t>cocktails.html</t>
   </si>
   <si>
-    <t>tonights-sip.jpg</t>
-  </si>
-  <si>
     <t>Our Services</t>
   </si>
   <si>
     <t>From cocktails to kegs…</t>
   </si>
   <si>
-    <t>services-header.jpg</t>
+    <t>coming-soon.jpg</t>
   </si>
 </sst>
 </file>
@@ -2781,7 +2775,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2843,16 +2837,16 @@
         <v>236</v>
       </c>
       <c r="H2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" t="s">
         <v>237</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>238</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>239</v>
-      </c>
-      <c r="K2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2866,19 +2860,20 @@
         <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E3" t="s">
         <v>231</v>
       </c>
       <c r="F3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" t="s">
         <v>242</v>
       </c>
-      <c r="G3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H3" t="s">
-        <v>244</v>
+      <c r="H3" t="str">
+        <f>H2</f>
+        <v>coming-soon.jpg</v>
       </c>
       <c r="I3" t="s">
         <v>232</v>
@@ -2898,22 +2893,23 @@
         <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H4" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="H4" t="str">
+        <f>H3</f>
+        <v>coming-soon.jpg</v>
       </c>
       <c r="I4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" t="s">
         <v>238</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
-      </c>
-      <c r="K4" t="s">
-        <v>240</v>
       </c>
       <c r="L4" s="5"/>
     </row>

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCA6EAE-BEAD-449E-B154-30D5ACD5B33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F51DAB-ADD6-4234-9E18-1D056912F1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="258">
   <si>
     <t>No</t>
   </si>
@@ -696,6 +696,9 @@
     <t>services</t>
   </si>
   <si>
+    <t>draft-systems</t>
+  </si>
+  <si>
     <t>tonights-event</t>
   </si>
   <si>
@@ -762,9 +765,6 @@
     <t>big-hero</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Sip</t>
   </si>
   <si>
@@ -781,6 +781,42 @@
   </si>
   <si>
     <t>coming-soon.jpg</t>
+  </si>
+  <si>
+    <t>cocktail-serv</t>
+  </si>
+  <si>
+    <t>Cocktail Services</t>
+  </si>
+  <si>
+    <t>Expertly crafted cocktails</t>
+  </si>
+  <si>
+    <t>Get Quote</t>
+  </si>
+  <si>
+    <t>plan-your-event.html</t>
+  </si>
+  <si>
+    <t>Draft Systems</t>
+  </si>
+  <si>
+    <t>Portable draft systems &amp; kegs</t>
+  </si>
+  <si>
+    <t>linear-gradient(135deg, #00c6ff, #0072ff)</t>
+  </si>
+  <si>
+    <t>event-bartending</t>
+  </si>
+  <si>
+    <t>Event Bartending</t>
+  </si>
+  <si>
+    <t>Professional bartenders for hire</t>
+  </si>
+  <si>
+    <t>linear-gradient(135deg, #f7971e, #ffd200)</t>
   </si>
 </sst>
 </file>
@@ -2772,10 +2808,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B94EE-BFDD-41BC-82DE-181F522B188E}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2789,81 +2825,81 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H2" t="s">
         <v>245</v>
       </c>
       <c r="I2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" t="s">
         <v>218</v>
       </c>
-      <c r="B3" t="s">
-        <v>217</v>
-      </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
         <v>240</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
         <v>241</v>
@@ -2876,13 +2912,13 @@
         <v>coming-soon.jpg</v>
       </c>
       <c r="I3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2903,26 +2939,165 @@
         <v>coming-soon.jpg</v>
       </c>
       <c r="I4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J4" t="s">
+        <v>239</v>
+      </c>
+      <c r="K4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="75">
+      <c r="A5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="str">
+        <f>H4</f>
+        <v>coming-soon.jpg</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J5" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K5" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="75">
+      <c r="A6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" ref="H6:H8" si="0">H5</f>
+        <v>coming-soon.jpg</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="7" spans="1:12" ht="75">
+      <c r="A7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>coming-soon.jpg</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="75">
+      <c r="A8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>coming-soon.jpg</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="L8" s="5"/>
     </row>
     <row r="10" spans="1:12">
       <c r="L10" s="5"/>
     </row>
     <row r="12" spans="1:12">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="5"/>
     </row>
     <row r="14" spans="1:12">
@@ -2931,28 +3106,8 @@
     <row r="16" spans="1:12">
       <c r="L16" s="5"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+    <row r="18" spans="12:12">
       <c r="L18" s="5"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="L20" s="5"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="L22" s="5"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="L24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F51DAB-ADD6-4234-9E18-1D056912F1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22CE6C2-016E-4F03-B7B7-CB123686CBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="261">
   <si>
     <t>No</t>
   </si>
@@ -817,6 +817,15 @@
   </si>
   <si>
     <t>linear-gradient(135deg, #f7971e, #ffd200)</t>
+  </si>
+  <si>
+    <t>cocktails-clear-spirits.jpg</t>
+  </si>
+  <si>
+    <t>equipment-draft-systems.jpg</t>
+  </si>
+  <si>
+    <t>equipment-cocktail-&amp;-draft-bars.jpg</t>
   </si>
 </sst>
 </file>
@@ -2811,7 +2820,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2999,9 +3008,8 @@
       <c r="G6" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" ref="H6:H8" si="0">H5</f>
-        <v>coming-soon.jpg</v>
+      <c r="H6" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>233</v>
@@ -3034,9 +3042,8 @@
       <c r="G7" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>coming-soon.jpg</v>
+      <c r="H7" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>253</v>
@@ -3068,9 +3075,8 @@
       <c r="G8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>coming-soon.jpg</v>
+      <c r="H8" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>257</v>

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22CE6C2-016E-4F03-B7B7-CB123686CBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04E5FF0-8B51-4302-ADB4-8749C1CB03F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="261">
   <si>
     <t>No</t>
   </si>
@@ -819,13 +819,13 @@
     <t>linear-gradient(135deg, #f7971e, #ffd200)</t>
   </si>
   <si>
-    <t>cocktails-clear-spirits.jpg</t>
-  </si>
-  <si>
     <t>equipment-draft-systems.jpg</t>
   </si>
   <si>
     <t>equipment-cocktail-&amp;-draft-bars.jpg</t>
+  </si>
+  <si>
+    <t>cocktails-clear-spirit.jpg</t>
   </si>
 </sst>
 </file>
@@ -2819,8 +2819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B94EE-BFDD-41BC-82DE-181F522B188E}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2829,6 +2829,7 @@
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2972,8 +2973,12 @@
       <c r="E5" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="H5" s="1" t="str">
         <f>H4</f>
         <v>coming-soon.jpg</v>
@@ -3009,7 +3014,7 @@
         <v>250</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>233</v>
@@ -3043,7 +3048,7 @@
         <v>250</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>253</v>
@@ -3076,7 +3081,7 @@
         <v>250</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>257</v>

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04E5FF0-8B51-4302-ADB4-8749C1CB03F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC58FC8-C55F-4D7C-A8A3-4474CB1C408D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="272">
   <si>
     <t>No</t>
   </si>
@@ -681,6 +681,9 @@
     <t>cocktail-magnificant seven.jpg</t>
   </si>
   <si>
+    <t>Page</t>
+  </si>
+  <si>
     <t>Base</t>
   </si>
   <si>
@@ -693,96 +696,24 @@
     <t>Country</t>
   </si>
   <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
     <t>services</t>
   </si>
   <si>
     <t>draft-systems</t>
   </si>
   <si>
-    <t>tonights-event</t>
-  </si>
-  <si>
-    <t>sip</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>subtitle</t>
-  </si>
-  <si>
-    <t>button_text</t>
-  </si>
-  <si>
-    <t>button_link</t>
-  </si>
-  <si>
-    <t>gradient</t>
-  </si>
-  <si>
-    <t>image_filename</t>
-  </si>
-  <si>
-    <t>style_class</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>accordion</t>
-  </si>
-  <si>
-    <t>tonights</t>
-  </si>
-  <si>
-    <t>Enjoy curated cocktails</t>
-  </si>
-  <si>
-    <t>linear-gradient(135deg, #ff5f6d, #ffc371)</t>
+    <t>Y</t>
   </si>
   <si>
     <t>sub-hero</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Tonight’s Event</t>
-  </si>
-  <si>
-    <t>Sip, Tip, Celebrate</t>
-  </si>
-  <si>
-    <t>linear-gradient(135deg, #111, #333)</t>
-  </si>
-  <si>
-    <t>big-hero</t>
-  </si>
-  <si>
-    <t>Sip</t>
-  </si>
-  <si>
-    <t>View Cocktails</t>
-  </si>
-  <si>
-    <t>cocktails.html</t>
-  </si>
-  <si>
-    <t>Our Services</t>
-  </si>
-  <si>
-    <t>From cocktails to kegs…</t>
-  </si>
-  <si>
-    <t>coming-soon.jpg</t>
-  </si>
-  <si>
     <t>cocktail-serv</t>
   </si>
   <si>
@@ -795,37 +726,139 @@
     <t>Get Quote</t>
   </si>
   <si>
-    <t>plan-your-event.html</t>
-  </si>
-  <si>
     <t>Draft Systems</t>
   </si>
   <si>
-    <t>Portable draft systems &amp; kegs</t>
-  </si>
-  <si>
-    <t>linear-gradient(135deg, #00c6ff, #0072ff)</t>
-  </si>
-  <si>
-    <t>event-bartending</t>
-  </si>
-  <si>
     <t>Event Bartending</t>
   </si>
   <si>
-    <t>Professional bartenders for hire</t>
-  </si>
-  <si>
-    <t>linear-gradient(135deg, #f7971e, #ffd200)</t>
-  </si>
-  <si>
-    <t>equipment-draft-systems.jpg</t>
-  </si>
-  <si>
-    <t>equipment-cocktail-&amp;-draft-bars.jpg</t>
-  </si>
-  <si>
-    <t>cocktails-clear-spirit.jpg</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Subtitle</t>
+  </si>
+  <si>
+    <t>Style Class</t>
+  </si>
+  <si>
+    <t>Gradient</t>
+  </si>
+  <si>
+    <t>Accordion</t>
+  </si>
+  <si>
+    <t>Accordion Color</t>
+  </si>
+  <si>
+    <t>Accordion Background</t>
+  </si>
+  <si>
+    <t>Button Enabled</t>
+  </si>
+  <si>
+    <t>Button Text</t>
+  </si>
+  <si>
+    <t>Button Link</t>
+  </si>
+  <si>
+    <t>cocktail-serv.jpg</t>
+  </si>
+  <si>
+    <t>premium-hero</t>
+  </si>
+  <si>
+    <t>linear-gradient(135deg, rgba(0,0,0,0.7), rgba(0,0,0,0.2))</t>
+  </si>
+  <si>
+    <t>Our bartenders create bespoke cocktails...</t>
+  </si>
+  <si>
+    <t>rgba(255,0,150,0.3)</t>
+  </si>
+  <si>
+    <t>bar-texture.jpg</t>
+  </si>
+  <si>
+    <t>/contact.html</t>
+  </si>
+  <si>
+    <t>Perfectly chilled beer</t>
+  </si>
+  <si>
+    <t>draft-systems.jpg</t>
+  </si>
+  <si>
+    <t>220px</t>
+  </si>
+  <si>
+    <t>Portable draft systems for large parties.</t>
+  </si>
+  <si>
+    <t>#222222</t>
+  </si>
+  <si>
+    <t>event-bartend</t>
+  </si>
+  <si>
+    <t>Professional service staff</t>
+  </si>
+  <si>
+    <t>event-bartend.jpg</t>
+  </si>
+  <si>
+    <t>wide-hero</t>
+  </si>
+  <si>
+    <t>linear-gradient(135deg, #ff9966, #ff5f6d)</t>
+  </si>
+  <si>
+    <t>Staff your event with friendly professional bartenders.</t>
+  </si>
+  <si>
+    <t>#111111</t>
+  </si>
+  <si>
+    <t>bartend-bg.jpg</t>
+  </si>
+  <si>
+    <t>Book Now</t>
+  </si>
+  <si>
+    <t>/plan.html</t>
+  </si>
+  <si>
+    <t>recipes</t>
+  </si>
+  <si>
+    <t>Recipes</t>
+  </si>
+  <si>
+    <t>Signature creations</t>
+  </si>
+  <si>
+    <t>recipes.jpg</t>
+  </si>
+  <si>
+    <t>medium-hero</t>
+  </si>
+  <si>
+    <t>Try out recipes curated for your event.</t>
+  </si>
+  <si>
+    <t>rgba(0,0,0,0.6)</t>
+  </si>
+  <si>
+    <t>recipes-bg.png</t>
   </si>
 </sst>
 </file>
@@ -874,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -887,7 +920,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2647,19 +2679,19 @@
         <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>91</v>
@@ -2817,291 +2849,311 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B94EE-BFDD-41BC-82DE-181F522B188E}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="6" max="8" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:18" ht="60">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105">
+      <c r="A2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="I2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+      <c r="L2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="45">
+      <c r="A3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" t="str">
-        <f>H2</f>
-        <v>coming-soon.jpg</v>
-      </c>
-      <c r="I3" t="s">
-        <v>233</v>
-      </c>
-      <c r="J3" t="s">
-        <v>234</v>
-      </c>
-      <c r="K3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H4" t="str">
-        <f>H3</f>
-        <v>coming-soon.jpg</v>
-      </c>
-      <c r="I4" t="s">
-        <v>238</v>
-      </c>
-      <c r="J4" t="s">
-        <v>239</v>
-      </c>
-      <c r="K4" t="s">
-        <v>235</v>
-      </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="75">
+      <c r="C3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="75">
+      <c r="A4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" ht="45">
       <c r="A5" s="1" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f>H4</f>
-        <v>coming-soon.jpg</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="75">
-      <c r="A6" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>216</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" ht="75">
-      <c r="A7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="75">
-      <c r="A8" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="L10" s="5"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="R10" s="5"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3109,16 +3161,20 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="L14" s="5"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="L16" s="5"/>
-    </row>
-    <row r="18" spans="12:12">
-      <c r="L18" s="5"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="R14" s="5"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="R16" s="5"/>
+    </row>
+    <row r="18" spans="18:18">
+      <c r="R18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC58FC8-C55F-4D7C-A8A3-4474CB1C408D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3184375-D468-4081-839B-80AA61ABA36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="269">
   <si>
     <t>No</t>
   </si>
@@ -711,6 +711,9 @@
     <t>Y</t>
   </si>
   <si>
+    <t>cocktail-clear-spirit.jpg</t>
+  </si>
+  <si>
     <t>sub-hero</t>
   </si>
   <si>
@@ -720,9 +723,6 @@
     <t>Cocktail Services</t>
   </si>
   <si>
-    <t>Expertly crafted cocktails</t>
-  </si>
-  <si>
     <t>Get Quote</t>
   </si>
   <si>
@@ -732,6 +732,12 @@
     <t>Event Bartending</t>
   </si>
   <si>
+    <t>equipment-draft-systems.jpg</t>
+  </si>
+  <si>
+    <t>equipment-cocktail-&amp;-draft-bars.jpg</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -771,9 +777,6 @@
     <t>Button Link</t>
   </si>
   <si>
-    <t>cocktail-serv.jpg</t>
-  </si>
-  <si>
     <t>premium-hero</t>
   </si>
   <si>
@@ -786,18 +789,9 @@
     <t>rgba(255,0,150,0.3)</t>
   </si>
   <si>
-    <t>bar-texture.jpg</t>
-  </si>
-  <si>
     <t>/contact.html</t>
   </si>
   <si>
-    <t>Perfectly chilled beer</t>
-  </si>
-  <si>
-    <t>draft-systems.jpg</t>
-  </si>
-  <si>
     <t>220px</t>
   </si>
   <si>
@@ -813,9 +807,6 @@
     <t>Professional service staff</t>
   </si>
   <si>
-    <t>event-bartend.jpg</t>
-  </si>
-  <si>
     <t>wide-hero</t>
   </si>
   <si>
@@ -828,9 +819,6 @@
     <t>#111111</t>
   </si>
   <si>
-    <t>bartend-bg.jpg</t>
-  </si>
-  <si>
     <t>Book Now</t>
   </si>
   <si>
@@ -858,7 +846,10 @@
     <t>rgba(0,0,0,0.6)</t>
   </si>
   <si>
-    <t>recipes-bg.png</t>
+    <t>Expertly crafted cocktails made and served in your own venue from our fully mobile cocktail bar.</t>
+  </si>
+  <si>
+    <t>Perfectly chilled beer, complete with foldable steel bar counter and glassware.</t>
   </si>
 </sst>
 </file>
@@ -2851,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B94EE-BFDD-41BC-82DE-181F522B188E}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2860,6 +2851,7 @@
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="8" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="25.140625" customWidth="1"/>
@@ -2868,16 +2860,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="60">
       <c r="A1" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>19</v>
@@ -2886,74 +2878,72 @@
         <v>217</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="105">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>221</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>221</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="M2" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
         <v>221</v>
       </c>
@@ -2975,40 +2965,40 @@
         <v>227</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>221</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
         <v>221</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="75">
       <c r="A4" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>219</v>
@@ -3017,65 +3007,63 @@
         <v>228</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>221</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>221</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>261</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
         <v>221</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="45">
+    <row r="5" spans="1:18" ht="30">
       <c r="A5" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>221</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3083,16 +3071,14 @@
         <v>221</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>271</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3184375-D468-4081-839B-80AA61ABA36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E9EAA0-B8CF-451C-9D5A-BC262505C5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="269">
   <si>
     <t>No</t>
   </si>
@@ -2842,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B94EE-BFDD-41BC-82DE-181F522B188E}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2991,10 +2991,15 @@
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f>P2</f>
+        <v>/contact.html</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="75">
       <c r="A4" s="1" t="s">

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E9EAA0-B8CF-451C-9D5A-BC262505C5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BDE3AF-C895-4BAB-B056-F4007638BBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -717,9 +717,6 @@
     <t>sub-hero</t>
   </si>
   <si>
-    <t>cocktail-serv</t>
-  </si>
-  <si>
     <t>Cocktail Services</t>
   </si>
   <si>
@@ -729,6 +726,9 @@
     <t>Draft Systems</t>
   </si>
   <si>
+    <t>event-bartending</t>
+  </si>
+  <si>
     <t>Event Bartending</t>
   </si>
   <si>
@@ -801,9 +801,6 @@
     <t>#222222</t>
   </si>
   <si>
-    <t>event-bartend</t>
-  </si>
-  <si>
     <t>Professional service staff</t>
   </si>
   <si>
@@ -850,6 +847,9 @@
   </si>
   <si>
     <t>Perfectly chilled beer, complete with foldable steel bar counter and glassware.</t>
+  </si>
+  <si>
+    <t>cocktail-services</t>
   </si>
 </sst>
 </file>
@@ -2842,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B94EE-BFDD-41BC-82DE-181F522B188E}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2910,16 +2910,16 @@
     </row>
     <row r="2" spans="1:18" ht="105">
       <c r="A2" s="1" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>222</v>
@@ -2948,7 +2948,7 @@
         <v>221</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>248</v>
@@ -2962,10 +2962,10 @@
         <v>219</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>229</v>
@@ -2994,7 +2994,7 @@
         <v>221</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P3" s="1" t="str">
         <f>P2</f>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="4" spans="1:18" ht="75">
       <c r="A4" s="1" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>219</v>
@@ -3012,7 +3012,7 @@
         <v>228</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>230</v>
@@ -3021,54 +3021,54 @@
         <v>221</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>221</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
         <v>221</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18" ht="30">
       <c r="A5" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>221</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3076,10 +3076,10 @@
         <v>221</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BDE3AF-C895-4BAB-B056-F4007638BBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8006644-E9DF-4AF3-89FE-9C7A4ABEFC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -843,13 +843,13 @@
     <t>rgba(0,0,0,0.6)</t>
   </si>
   <si>
-    <t>Expertly crafted cocktails made and served in your own venue from our fully mobile cocktail bar.</t>
-  </si>
-  <si>
-    <t>Perfectly chilled beer, complete with foldable steel bar counter and glassware.</t>
-  </si>
-  <si>
     <t>cocktail-services</t>
+  </si>
+  <si>
+    <t>Perfectly chilled beer, complete with foldable steel bar counter and glassware. We can cater for up to 120 people, with a choice of up to 4 different beers. We also offer cocktails on draft, as well as mixers.</t>
+  </si>
+  <si>
+    <t>Expertly crafted cocktails made and served in your own venue from our fully mobile cocktail bar. Scroll through our extensive menu and press 'Add to Favourite' on any cocktail that takes your fancy! Or alternatively, design your menu using our Tinder-style menu builder. Simply swipe right on any of the cocktails you want to include on your menu.</t>
   </si>
 </sst>
 </file>
@@ -2842,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B94EE-BFDD-41BC-82DE-181F522B188E}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2908,9 +2908,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="105">
+    <row r="2" spans="1:18" ht="180">
       <c r="A2" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>219</v>
@@ -2919,7 +2919,7 @@
         <v>224</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>222</v>
@@ -2954,7 +2954,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="45">
+    <row r="3" spans="1:18" ht="105">
       <c r="A3" s="1" t="s">
         <v>220</v>
       </c>

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8006644-E9DF-4AF3-89FE-9C7A4ABEFC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EBE3C5-ACAE-4AB0-98C0-6EE3D44A705D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -783,9 +783,6 @@
     <t>linear-gradient(135deg, rgba(0,0,0,0.7), rgba(0,0,0,0.2))</t>
   </si>
   <si>
-    <t>Our bartenders create bespoke cocktails...</t>
-  </si>
-  <si>
     <t>rgba(255,0,150,0.3)</t>
   </si>
   <si>
@@ -810,9 +807,6 @@
     <t>linear-gradient(135deg, #ff9966, #ff5f6d)</t>
   </si>
   <si>
-    <t>Staff your event with friendly professional bartenders.</t>
-  </si>
-  <si>
     <t>#111111</t>
   </si>
   <si>
@@ -850,6 +844,12 @@
   </si>
   <si>
     <t>Expertly crafted cocktails made and served in your own venue from our fully mobile cocktail bar. Scroll through our extensive menu and press 'Add to Favourite' on any cocktail that takes your fancy! Or alternatively, design your menu using our Tinder-style menu builder. Simply swipe right on any of the cocktails you want to include on your menu.</t>
+  </si>
+  <si>
+    <t>Turn your home into a speakeasy for one special night.</t>
+  </si>
+  <si>
+    <t>Staff your event with (mostly) friendly professional bartenders.</t>
   </si>
 </sst>
 </file>
@@ -2842,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B94EE-BFDD-41BC-82DE-181F522B188E}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="2" spans="1:18" ht="180">
       <c r="A2" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>219</v>
@@ -2919,7 +2919,7 @@
         <v>224</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>222</v>
@@ -2938,10 +2938,10 @@
         <v>221</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
@@ -2951,7 +2951,7 @@
         <v>225</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="105">
@@ -2965,7 +2965,7 @@
         <v>226</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>229</v>
@@ -2977,24 +2977,24 @@
         <v>223</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
         <v>221</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
         <v>221</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P3" s="1" t="str">
         <f>P2</f>
@@ -3012,7 +3012,7 @@
         <v>228</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>230</v>
@@ -3021,54 +3021,54 @@
         <v>221</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>221</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
         <v>221</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18" ht="30">
       <c r="A5" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>221</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3076,10 +3076,10 @@
         <v>221</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EBE3C5-ACAE-4AB0-98C0-6EE3D44A705D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBA3D51-F8A0-44CA-A682-59E2791761F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="275">
   <si>
     <t>No</t>
   </si>
@@ -720,9 +720,6 @@
     <t>Cocktail Services</t>
   </si>
   <si>
-    <t>Get Quote</t>
-  </si>
-  <si>
     <t>Draft Systems</t>
   </si>
   <si>
@@ -750,9 +747,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Subtitle</t>
-  </si>
-  <si>
     <t>Style Class</t>
   </si>
   <si>
@@ -771,12 +765,6 @@
     <t>Button Enabled</t>
   </si>
   <si>
-    <t>Button Text</t>
-  </si>
-  <si>
-    <t>Button Link</t>
-  </si>
-  <si>
     <t>premium-hero</t>
   </si>
   <si>
@@ -786,9 +774,6 @@
     <t>rgba(255,0,150,0.3)</t>
   </si>
   <si>
-    <t>/contact.html</t>
-  </si>
-  <si>
     <t>220px</t>
   </si>
   <si>
@@ -850,6 +835,39 @@
   </si>
   <si>
     <t>Staff your event with (mostly) friendly professional bartenders.</t>
+  </si>
+  <si>
+    <t>Choose your cocktails</t>
+  </si>
+  <si>
+    <t>/menu.html</t>
+  </si>
+  <si>
+    <t>Subtitle 2</t>
+  </si>
+  <si>
+    <t>Subtitle 3</t>
+  </si>
+  <si>
+    <t>Subtitle 1</t>
+  </si>
+  <si>
+    <t>Button text 2</t>
+  </si>
+  <si>
+    <t>Button link 2</t>
+  </si>
+  <si>
+    <t>Button Link 2</t>
+  </si>
+  <si>
+    <t>Button Text 1</t>
+  </si>
+  <si>
+    <t>Swipe</t>
+  </si>
+  <si>
+    <t>/premium-listings.html</t>
   </si>
 </sst>
 </file>
@@ -2840,10 +2858,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B94EE-BFDD-41BC-82DE-181F522B188E}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2851,66 +2869,78 @@
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="8" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="4" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="10" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="60">
+    <row r="1" spans="1:20" ht="60">
       <c r="A1" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="180">
+      <c r="Q1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="180">
       <c r="A2" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>219</v>
@@ -2919,42 +2949,50 @@
         <v>224</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="N2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="105">
+      <c r="Q2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="105">
       <c r="A3" s="1" t="s">
         <v>220</v>
       </c>
@@ -2962,191 +3000,201 @@
         <v>219</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f>R2</f>
+        <v>/premium-listings.html</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="75">
+      <c r="A4" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="P3" s="1" t="str">
-        <f>P2</f>
-        <v>/contact.html</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="75">
-      <c r="A4" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" ht="30">
+      <c r="A5" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" ht="30">
-      <c r="A5" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="P5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="R10" s="5"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="T10" s="5"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3154,18 +3202,20 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="R14" s="5"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="R16" s="5"/>
-    </row>
-    <row r="18" spans="18:18">
-      <c r="R18" s="5"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="T14" s="5"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="T16" s="5"/>
+    </row>
+    <row r="18" spans="20:20">
+      <c r="T18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBA3D51-F8A0-44CA-A682-59E2791761F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F95E7E-1BA3-43F1-9150-99154E530F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="277">
   <si>
     <t>No</t>
   </si>
@@ -828,9 +828,6 @@
     <t>Perfectly chilled beer, complete with foldable steel bar counter and glassware. We can cater for up to 120 people, with a choice of up to 4 different beers. We also offer cocktails on draft, as well as mixers.</t>
   </si>
   <si>
-    <t>Expertly crafted cocktails made and served in your own venue from our fully mobile cocktail bar. Scroll through our extensive menu and press 'Add to Favourite' on any cocktail that takes your fancy! Or alternatively, design your menu using our Tinder-style menu builder. Simply swipe right on any of the cocktails you want to include on your menu.</t>
-  </si>
-  <si>
     <t>Turn your home into a speakeasy for one special night.</t>
   </si>
   <si>
@@ -868,6 +865,15 @@
   </si>
   <si>
     <t>/premium-listings.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scroll through our extensive menu and press 'Add to Favourite' on any cocktail that takes your fancy! </t>
+  </si>
+  <si>
+    <t>Expertly crafted cocktails made and served in your own venue from our fully mobile cocktail bar.  Or alternatively, design your menu using our Tinder-style menu builder. Simply swipe right on any of the cocktails you want to include on your menu.</t>
+  </si>
+  <si>
+    <t>Or alternatively, design your menu using our Tinder-style menu builder. Simply swipe right on any of the cocktails you want to include on your menu.</t>
   </si>
 </sst>
 </file>
@@ -2860,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B94EE-BFDD-41BC-82DE-181F522B188E}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2887,13 +2893,13 @@
         <v>233</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -2926,19 +2932,19 @@
         <v>239</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="180">
+    </row>
+    <row r="2" spans="1:20" ht="135">
       <c r="A2" s="1" t="s">
         <v>259</v>
       </c>
@@ -2949,10 +2955,14 @@
         <v>224</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>222</v>
       </c>
@@ -2970,7 +2980,7 @@
         <v>221</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>242</v>
@@ -2980,16 +2990,16 @@
         <v>221</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="105">
@@ -3073,7 +3083,7 @@
         <v>221</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>249</v>

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F95E7E-1BA3-43F1-9150-99154E530F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A36C6E-B1C8-4266-AE50-97D23F1DA1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
@@ -810,9 +810,6 @@
     <t>Signature creations</t>
   </si>
   <si>
-    <t>recipes.jpg</t>
-  </si>
-  <si>
     <t>medium-hero</t>
   </si>
   <si>
@@ -874,6 +871,9 @@
   </si>
   <si>
     <t>Or alternatively, design your menu using our Tinder-style menu builder. Simply swipe right on any of the cocktails you want to include on your menu.</t>
+  </si>
+  <si>
+    <t>cocktail-station-prepped.jpg</t>
   </si>
 </sst>
 </file>
@@ -2866,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B94EE-BFDD-41BC-82DE-181F522B188E}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2893,13 +2893,13 @@
         <v>233</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -2932,21 +2932,21 @@
         <v>239</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="135">
       <c r="A2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>219</v>
@@ -2955,13 +2955,13 @@
         <v>224</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>222</v>
@@ -2980,7 +2980,7 @@
         <v>221</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>242</v>
@@ -2990,16 +2990,16 @@
         <v>221</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="105">
@@ -3013,7 +3013,7 @@
         <v>225</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3083,7 +3083,7 @@
         <v>221</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>249</v>
@@ -3116,13 +3116,13 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>221</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -3130,10 +3130,10 @@
         <v>221</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">

--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc2\Desktop\GBS9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A36C6E-B1C8-4266-AE50-97D23F1DA1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF31618-A5F9-487A-9BD3-6B876E9AFE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{85B9A84C-521F-415E-9407-6287BE1CC987}"/>
   </bookViews>
   <sheets>
     <sheet name="Cocktails" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="309">
   <si>
     <t>No</t>
   </si>
@@ -874,6 +874,102 @@
   </si>
   <si>
     <t>cocktail-station-prepped.jpg</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Smirnoff</t>
+  </si>
+  <si>
+    <t>Gordons</t>
+  </si>
+  <si>
+    <t>Hendricks</t>
+  </si>
+  <si>
+    <t>Bacardi</t>
+  </si>
+  <si>
+    <t>Jameson</t>
+  </si>
+  <si>
+    <t>Powers</t>
+  </si>
+  <si>
+    <t>Guinness</t>
+  </si>
+  <si>
+    <t>Coors</t>
+  </si>
+  <si>
+    <t>Heineken</t>
+  </si>
+  <si>
+    <t>Smithwicks</t>
+  </si>
+  <si>
+    <t>Harp</t>
+  </si>
+  <si>
+    <t>Murphys</t>
+  </si>
+  <si>
+    <t>Beamish</t>
+  </si>
+  <si>
+    <t>Carlsberg</t>
+  </si>
+  <si>
+    <t>Coca Cola</t>
+  </si>
+  <si>
+    <t>Fanta Orange</t>
+  </si>
+  <si>
+    <t>Fanta Lemon</t>
+  </si>
+  <si>
+    <t>Club Lemon</t>
+  </si>
+  <si>
+    <t>Club Orange</t>
+  </si>
+  <si>
+    <t>7 Up</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Tonic water</t>
+  </si>
+  <si>
+    <t>Schweppes Tonic</t>
+  </si>
+  <si>
+    <t>Schweppes Slimline Tonic</t>
+  </si>
+  <si>
+    <t>Slimline tonic</t>
+  </si>
+  <si>
+    <t>Ginger ale</t>
+  </si>
+  <si>
+    <t>Lucozade</t>
+  </si>
+  <si>
+    <t>Red Bull</t>
+  </si>
+  <si>
+    <t>Paddy</t>
+  </si>
+  <si>
+    <t>Hennessy</t>
+  </si>
+  <si>
+    <t>Huzzar</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1348,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2681,10 +2777,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1DAADE-BA31-4DFD-A5C8-BF7FC49A43D1}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2712,6 +2808,51 @@
         <v>91</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2719,10 +2860,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4DA02F-846B-444F-B15E-6AB08FBC8131}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2742,6 +2883,46 @@
       </c>
       <c r="E1" s="4" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2835,10 +3016,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E3F5C3-BC76-4BDF-809F-51355181FF25}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2857,6 +3038,76 @@
         <v>91</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2864,10 +3115,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B94EE-BFDD-41BC-82DE-181F522B188E}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2875,14 +3126,14 @@
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
-    <col min="4" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="10" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="4" max="7" width="30.5703125" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="9" max="11" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="60">
+    <row r="1" spans="1:21" ht="60">
       <c r="A1" s="2" t="s">
         <v>232</v>
       </c>
@@ -2902,49 +3153,52 @@
         <v>265</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="135">
+    <row r="2" spans="1:21" ht="135">
       <c r="A2" s="1" t="s">
         <v>258</v>
       </c>
@@ -2963,46 +3217,47 @@
       <c r="F2" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="105">
+    <row r="3" spans="1:21" ht="105">
       <c r="A3" s="1" t="s">
         <v>220</v>
       </c>
@@ -3017,41 +3272,42 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="R3" s="1" t="str">
-        <f>R2</f>
+      <c r="S3" s="1" t="str">
+        <f>S2</f>
         <v>/premium-listings.html</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="75">
+    <row r="4" spans="1:21" ht="75">
       <c r="A4" s="1" t="s">
         <v>226</v>
       </c>
@@ -3066,41 +3322,42 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" ht="30">
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" ht="30">
       <c r="A5" s="1" t="s">
         <v>252</v>
       </c>
@@ -3115,34 +3372,35 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3151,17 +3409,18 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="S6" s="1"/>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3170,16 +3429,17 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="P7" s="1"/>
       <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3188,24 +3448,24 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="P8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="T8" s="5"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="T10" s="5"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="S8" s="1"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="U10" s="5"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -3214,18 +3474,19 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="P12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="T14" s="5"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="T16" s="5"/>
-    </row>
-    <row r="18" spans="20:20">
-      <c r="T18" s="5"/>
+      <c r="S12" s="2"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="U14" s="5"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="U16" s="5"/>
+    </row>
+    <row r="18" spans="21:21">
+      <c r="U18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
